--- a/public/xlsx/professorStore.xlsx
+++ b/public/xlsx/professorStore.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29145\WebstormProjects\health\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015C626-6808-4973-9E78-3E5420BA2224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7401DF-441C-4381-BCF7-C45C6786B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="professor" sheetId="1" r:id="rId1"/>
+    <sheet name="professorFruit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +74,54 @@
   </si>
   <si>
     <t>/avatar/a.png</t>
+  </si>
+  <si>
+    <t>fruitName</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>authorNames</t>
+  </si>
+  <si>
+    <t>fruitType</t>
+  </si>
+  <si>
+    <t>fruitBaseIn</t>
+  </si>
+  <si>
+    <t>publishTime</t>
+  </si>
+  <si>
+    <t>fruitOutLink</t>
+  </si>
+  <si>
+    <t>fruitBasicIntroduction</t>
+  </si>
+  <si>
+    <t>fileLink</t>
+  </si>
+  <si>
+    <t>基于深度学习的图像分割技术</t>
+  </si>
+  <si>
+    <t>张三、李四</t>
+  </si>
+  <si>
+    <t>论文</t>
+  </si>
+  <si>
+    <t>中国计算机杂志</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067297/</t>
+  </si>
+  <si>
+    <t>基于深度学习的图像分割技术是一种用于将图像中的目标对象与背景进行像素级别的精确分割的方法。它在计算机视觉领域具有广泛的应用，如图像语义分割、医学图像分析、自动驾驶、视频处理等。这项技术的关键在于使用深度卷积神经网络（CNN）模型，通过学习大量标注的图像数据，自动提取图像中的特征信息，并将像素分为不同的类别。深度学习模型能够学习到更高级别的语义特征，可以准确捕捉目标对象的形状、边界和上下文信息，从而实现更精确的分割结果。</t>
+  </si>
+  <si>
+    <t>/files/a.pdf</t>
   </si>
 </sst>
 </file>
@@ -409,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -481,4 +530,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D007B853-B131-4C5A-965A-F1129ACC92DB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>2024.03</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/xlsx/professorStore.xlsx
+++ b/public/xlsx/professorStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29145\WebstormProjects\health\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7401DF-441C-4381-BCF7-C45C6786B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC06C4-B47C-4C33-9B9C-972C8C4A0502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="professor" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -65,14 +65,6 @@
     <t>物理学；光学；</t>
   </si>
   <si>
-    <t>sss@test.com</t>
-  </si>
-  <si>
-    <t>2008.06-2012.09：北京大学 讲师
-2012.06-2014.09：北京大学 副教授
-2014.06-2018.09：北京大学 教授</t>
-  </si>
-  <si>
     <t>/avatar/a.png</t>
   </si>
   <si>
@@ -122,6 +114,199 @@
   </si>
   <si>
     <t>/files/a.pdf</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaAAAAAAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERESFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DERWERRRRRRRFSDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWTRVTERYHTRGF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEWTERSGVSDDGSDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWERTETGSRYTRHDFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37128390EQ-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQWR3243E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E34234522R5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3EUWQHEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEQWNDASHD3UR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2EYQ83EDHEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214FSDE3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214E34TEFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>543356RFSDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdwefs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>werfsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewfsddc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日4温柔分手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067298/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067299/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067300/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067301/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067302/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067303/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30067304/</t>
+  </si>
+  <si>
+    <t>positionRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授，博士生导师，长江学者，国务院特殊津贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.09:北京大学:教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.10:北京大学:教授</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.11:北京大学:教授</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.12:北京大学:教授</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.13:北京大学:教授</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.14:北京大学:教授</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.15:北京大学:教授</t>
   </si>
 </sst>
 </file>
@@ -173,9 +358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,18 +644,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +685,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,19 +703,214 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>18101930934</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>4374932748392</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>4732742374</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>23416473164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>3214434</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -534,44 +922,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D007B853-B131-4C5A-965A-F1129ACC92DB}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.08203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -582,33 +978,278 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
       <c r="G2">
         <v>2024.03</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>2024.03</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>2024.03</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>2024.03</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>2024.03</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>2024.03</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>2024.03</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>2024.03</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
     </row>

--- a/public/xlsx/professorStore.xlsx
+++ b/public/xlsx/professorStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29145\WebstormProjects\health\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC06C4-B47C-4C33-9B9C-972C8C4A0502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF839F6-130A-4659-9A24-961E8E54BBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="professor" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -307,6 +307,91 @@
     <t>2008.06-2012.09:北京大学:讲师
 2012.06-2014.09:北京大学:副教授
 2014.06-2018.15:北京大学:教授</t>
+  </si>
+  <si>
+    <t>1b7807d8de9e4810aa8d562e77baf09a</t>
+  </si>
+  <si>
+    <t>1e37410bfb014c9faa5cbafc245c6aaf</t>
+  </si>
+  <si>
+    <t>1ffa51f80a0246e1b28d443c019ec143</t>
+  </si>
+  <si>
+    <t>2cc6315137454caf93e3852cab59d011</t>
+  </si>
+  <si>
+    <t>2ebb0eebb8674ea787b9aecfcf569653</t>
+  </si>
+  <si>
+    <t>3ddd7f38f6a9493992aff9e610b98a50</t>
+  </si>
+  <si>
+    <t>68fb208957c94ceebfe80de1929c37de</t>
+  </si>
+  <si>
+    <t>5224d8c891ba4ffe95a226731f3e09be</t>
+  </si>
+  <si>
+    <t>abstract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa; bbb; cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114514.1145.1919.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114514.1145.1919.82</t>
+  </si>
+  <si>
+    <t>114514.1145.1919.83</t>
+  </si>
+  <si>
+    <t>114514.1145.1919.84</t>
+  </si>
+  <si>
+    <t>114514.1145.1919.85</t>
+  </si>
+  <si>
+    <t>114514.1145.1919.86</t>
+  </si>
+  <si>
+    <t>114514.1145.1919.87</t>
+  </si>
+  <si>
+    <t>114514.1145.1919.88</t>
+  </si>
+  <si>
+    <t>baozhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -922,23 +1007,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D007B853-B131-4C5A-965A-F1129ACC92DB}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.58203125" customWidth="1"/>
-    <col min="9" max="9" width="22.08203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="12.4140625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.58203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,30 +1037,45 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -987,30 +1087,45 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2024.03</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1022,30 +1137,45 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2024.03</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1057,30 +1187,45 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2024.03</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1092,30 +1237,45 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2024.03</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>63</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1127,30 +1287,45 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2024.03</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1162,30 +1337,45 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2024.03</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>65</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1197,30 +1387,45 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2024.03</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>66</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1232,25 +1437,40 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2024.03</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/public/xlsx/professorStore.xlsx
+++ b/public/xlsx/professorStore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29145\WebstormProjects\health\public\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29145\WebstormProjects\page1\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF839F6-130A-4659-9A24-961E8E54BBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694F7711-8BD9-4DFC-8C1F-256BB218F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="professor" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
   <si>
     <t xml:space="preserve">长期致力于磁性体表面和界面性质理论，表面吸附和表面电子性质理论， 晶体光学性质的理论计算研究， 和计算凝聚态物理理论方法的发展。在磁性和表面物理研究中作出了突出贡献，在国内获得过国家和院级奖励三次，在国际上有广泛影响。
 </t>
-  </si>
-  <si>
-    <t>物理学；光学；</t>
   </si>
   <si>
     <t>/avatar/a.png</t>
@@ -391,6 +388,127 @@
   </si>
   <si>
     <t>baozhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理学;光学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ddgyf38f6a9493992aff9e610b98a50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68fb200957c94ceebfe80de1929c37de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522ios8c891ba4ffe95a226731f3e09be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E34234522R6</t>
+  </si>
+  <si>
+    <t>543357RFSDC</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.16:北京大学:教授</t>
+  </si>
+  <si>
+    <t>E34234522R7</t>
+  </si>
+  <si>
+    <t>543358RFSDC</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.17:北京大学:教授</t>
+  </si>
+  <si>
+    <t>E34234522R8</t>
+  </si>
+  <si>
+    <t>543359RFSDC</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.18:北京大学:教授</t>
+  </si>
+  <si>
+    <t>E34234522R9</t>
+  </si>
+  <si>
+    <t>543360RFSDC</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.19:北京大学:教授</t>
+  </si>
+  <si>
+    <t>E34234522R10</t>
+  </si>
+  <si>
+    <t>543361RFSDC</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.20:北京大学:教授</t>
+  </si>
+  <si>
+    <t>E34234522R11</t>
+  </si>
+  <si>
+    <t>543362RFSDC</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.21:北京大学:教授</t>
+  </si>
+  <si>
+    <t>E34234522R12</t>
+  </si>
+  <si>
+    <t>543363RFSDC</t>
+  </si>
+  <si>
+    <t>2008.06-2012.09:北京大学:讲师
+2012.06-2014.09:北京大学:副教授
+2014.06-2018.22:北京大学:教授</t>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -771,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -785,25 +903,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>18101930934</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -811,31 +929,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>4374932748392</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -843,31 +961,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>4732742374</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -875,31 +993,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>23416473164</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -907,31 +1025,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>3214434</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -939,31 +1057,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -971,31 +1089,255 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D007B853-B131-4C5A-965A-F1129ACC92DB}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1028,453 +1370,604 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>2024.03</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
         <v>91</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="O2" t="s">
-        <v>93</v>
-      </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
       </c>
       <c r="H3">
         <v>2024.03</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
         <v>91</v>
       </c>
-      <c r="N3" t="s">
-        <v>92</v>
-      </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
       <c r="H4">
         <v>2024.03</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
         <v>91</v>
       </c>
-      <c r="N4" t="s">
-        <v>92</v>
-      </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
       </c>
       <c r="H5">
         <v>2024.03</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
         <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
         <v>91</v>
       </c>
-      <c r="N5" t="s">
-        <v>92</v>
-      </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
       </c>
       <c r="H6">
         <v>2024.03</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
         <v>91</v>
       </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
       </c>
       <c r="H7">
         <v>2024.03</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
         <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
       </c>
       <c r="H8">
         <v>2024.03</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
         <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
       </c>
       <c r="H9">
         <v>2024.03</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
-        <v>92</v>
-      </c>
       <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s">
         <v>100</v>
       </c>
-      <c r="P9" t="s">
-        <v>101</v>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>2024.03</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>2024.03</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>2024.03</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/xlsx/professorStore.xlsx
+++ b/public/xlsx/professorStore.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29145\WebstormProjects\page1\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694F7711-8BD9-4DFC-8C1F-256BB218F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EECA0-B304-4B55-98F5-7E00E8AAE0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="professor" sheetId="1" r:id="rId1"/>
     <sheet name="professorFruit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -510,6 +510,53 @@
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2024.03</t>
+  </si>
+  <si>
+    <t>2025.03</t>
+  </si>
+  <si>
+    <t>2013.03</t>
+  </si>
+  <si>
+    <t>2014.09</t>
+  </si>
+  <si>
+    <t>2011.02</t>
+  </si>
+  <si>
+    <t>2020.12</t>
+  </si>
+  <si>
+    <t>2021.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -561,12 +608,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -849,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1349,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D007B853-B131-4C5A-965A-F1129ACC92DB}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1365,7 +1414,7 @@
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1436,7 @@
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1414,8 +1463,11 @@
       <c r="P1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1437,8 +1489,8 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
-        <v>2024.03</v>
+      <c r="H2" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -1464,8 +1516,11 @@
       <c r="P2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1487,8 +1542,8 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3">
-        <v>2024.03</v>
+      <c r="H3" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -1514,8 +1569,11 @@
       <c r="P3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1537,8 +1595,8 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4">
-        <v>2024.03</v>
+      <c r="H4" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I4" t="s">
         <v>61</v>
@@ -1564,8 +1622,11 @@
       <c r="P4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1587,8 +1648,8 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="H5">
-        <v>2024.03</v>
+      <c r="H5" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -1614,8 +1675,11 @@
       <c r="P5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1637,8 +1701,8 @@
       <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="H6">
-        <v>2024.03</v>
+      <c r="H6" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="I6" t="s">
         <v>63</v>
@@ -1664,8 +1728,11 @@
       <c r="P6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -1687,8 +1754,8 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
-        <v>2024.03</v>
+      <c r="H7" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
@@ -1714,8 +1781,11 @@
       <c r="P7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1737,8 +1807,8 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
-        <v>2024.03</v>
+      <c r="H8" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="I8" t="s">
         <v>65</v>
@@ -1764,8 +1834,11 @@
       <c r="P8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1787,8 +1860,8 @@
       <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
-        <v>2024.03</v>
+      <c r="H9" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
@@ -1814,8 +1887,11 @@
       <c r="P9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1837,8 +1913,8 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
-        <v>2024.03</v>
+      <c r="H10" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I10" t="s">
         <v>64</v>
@@ -1864,8 +1940,11 @@
       <c r="P10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -1887,8 +1966,8 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
-        <v>2024.03</v>
+      <c r="H11" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I11" t="s">
         <v>65</v>
@@ -1914,8 +1993,11 @@
       <c r="P11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -1937,8 +2019,8 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H12">
-        <v>2024.03</v>
+      <c r="H12" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
@@ -1963,6 +2045,9 @@
       </c>
       <c r="P12" t="s">
         <v>100</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/public/xlsx/professorStore.xlsx
+++ b/public/xlsx/professorStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29145\WebstormProjects\page1\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EECA0-B304-4B55-98F5-7E00E8AAE0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEEE6FB-C1C0-4791-96AD-315B71A70080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="professor" sheetId="1" r:id="rId1"/>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>68</v>
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D007B853-B131-4C5A-965A-F1129ACC92DB}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
